--- a/AAE 560 Air Taxi Model/+airtaxi/output.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D0F079-F059-4459-822E-661B8DE2BDF4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCA1886-83B7-4132-A204-DF474E52D08D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112" xr2:uid="{1CE802FC-207B-42FB-BEF8-821B014F08F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112" xr2:uid="{08A48772-B5EB-491D-ADE9-C6FD619313C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Run_ID</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>avg dist btween ports</t>
+  </si>
+  <si>
+    <t>accidents/hour</t>
   </si>
 </sst>
 </file>
@@ -402,16 +405,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB23190-74C8-4015-A0F2-586CECEB9EAE}">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DCB9D0-6E8D-4D08-9A61-C3BB9BBD6054}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I16"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +454,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -451,25 +469,29 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>246</v>
+        <v>117</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.159704445176111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26.63504923173846</v>
+      </c>
+      <c r="J2">
+        <f>SUM(B2:E2)*60/SUM(F2:G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -480,16 +502,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="G3">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -497,95 +519,111 @@
       <c r="I3">
         <v>35.159704445176111</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <f t="shared" ref="J3:J16" si="0">SUM(B3:E3)*60/SUM(F3:G3)</f>
+        <v>1.8584070796460177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="G4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>35.159704445176111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>38.703085010357718</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>224</v>
+        <v>365</v>
       </c>
       <c r="G5">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>35.159704445176111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46.291751436528159</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>238</v>
+        <v>692</v>
       </c>
       <c r="G6">
-        <v>101</v>
+        <v>303</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>35.159704445176111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46.300886220805502</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>5.6683417085427132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -593,28 +631,32 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="G7">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>35.159704445176111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26.63504923173846</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -622,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G8">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -642,8 +684,12 @@
       <c r="I8">
         <v>35.159704445176111</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -657,22 +703,26 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="G9">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.159704445176111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33.792245485229586</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -680,28 +730,32 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>121</v>
+        <v>433</v>
       </c>
       <c r="G10">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.159704445176111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>43.860625911465526</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -709,62 +763,70 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>188</v>
+        <v>523</v>
       </c>
       <c r="G11">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.159704445176111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49.687553588852403</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="G12">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.159704445176111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26.63504923173846</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -776,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G13">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -787,45 +849,53 @@
       <c r="I13">
         <v>35.159704445176111</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="G14">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.159704445176111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44.433538450961677</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.88421052631578945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -834,45 +904,53 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="G15">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.159704445176111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45.117942552263393</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.3989637305699483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>165</v>
+        <v>435</v>
       </c>
       <c r="G16">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>35.159704445176111</v>
+        <v>48.570820150625806</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/AAE 560 Air Taxi Model/+airtaxi/output.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCA1886-83B7-4132-A204-DF474E52D08D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF2C89A-AFE7-429C-B9AA-6B59C47C3856}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112" xr2:uid="{08A48772-B5EB-491D-ADE9-C6FD619313C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112" xr2:uid="{7807059B-CCC9-4CF3-AF26-F6C9F90214FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Run_ID</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>avg dist btween ports</t>
-  </si>
-  <si>
-    <t>accidents/hour</t>
   </si>
 </sst>
 </file>
@@ -405,28 +402,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DCB9D0-6E8D-4D08-9A61-C3BB9BBD6054}">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08388F6-883D-4B75-8200-7AA8C277B3A3}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,11 +439,8 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -486,32 +468,28 @@
       <c r="I2">
         <v>26.63504923173846</v>
       </c>
-      <c r="J2">
-        <f>SUM(B2:E2)*60/SUM(F2:G2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -519,12 +497,8 @@
       <c r="I3">
         <v>35.159704445176111</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J16" si="0">SUM(B3:E3)*60/SUM(F3:G3)</f>
-        <v>1.8584070796460177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -541,23 +515,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>296</v>
+        <v>164</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>38.703085010357718</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>35.505410854897001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -568,62 +538,54 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>46.291751436528159</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45.55461050358489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>692</v>
+        <v>546</v>
       </c>
       <c r="G6">
-        <v>303</v>
+        <v>433</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>46.300886220805502</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>5.6683417085427132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45.512080869800393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -640,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -651,12 +613,8 @@
       <c r="I7">
         <v>26.63504923173846</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -673,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -684,12 +642,8 @@
       <c r="I8">
         <v>35.159704445176111</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -706,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -715,14 +669,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.792245485229586</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47.88915754692912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -739,23 +689,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>433</v>
+        <v>267</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>43.860625911465526</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>49.090982901609188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -763,32 +709,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>523</v>
+        <v>443</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>49.687553588852403</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>50.461538001077528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -805,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,12 +758,8 @@
       <c r="I12">
         <v>26.63504923173846</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -838,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -849,50 +787,42 @@
       <c r="I13">
         <v>35.159704445176111</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>332</v>
+        <v>134</v>
       </c>
       <c r="G14">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>44.433538450961677</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0.88421052631578945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>41.449174255558056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -901,56 +831,48 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="G15">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>45.117942552263393</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>1.3989637305699483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>46.309144013291764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>435</v>
+        <v>506</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>48.570820150625806</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43.487625576090778</v>
       </c>
     </row>
   </sheetData>

--- a/AAE 560 Air Taxi Model/+airtaxi/output.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF2C89A-AFE7-429C-B9AA-6B59C47C3856}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5804DCB0-0040-43EF-8955-1FB7E40295DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112" xr2:uid="{7807059B-CCC9-4CF3-AF26-F6C9F90214FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112" xr2:uid="{97B5F062-53DE-4BDE-954C-29B2E344855B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,11 +402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08388F6-883D-4B75-8200-7AA8C277B3A3}">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84807C71-EC78-444E-BE3E-D0DB6C655FA6}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I16"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,437 +442,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>54</v>
+        <v>683</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.63504923173846</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>114</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>35.159704445176111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>164</v>
-      </c>
-      <c r="G4">
-        <v>13</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>35.505410854897001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>428</v>
-      </c>
-      <c r="G5">
-        <v>268</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>45.55461050358489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>546</v>
-      </c>
-      <c r="G6">
-        <v>433</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>45.512080869800393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>60</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>26.63504923173846</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>160</v>
-      </c>
-      <c r="G8">
-        <v>76</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>35.159704445176111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>179</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>47.88915754692912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>267</v>
-      </c>
-      <c r="G10">
-        <v>98</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>49.090982901609188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>443</v>
-      </c>
-      <c r="G11">
-        <v>435</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>50.461538001077528</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>54</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>26.63504923173846</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>119</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>35.159704445176111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>134</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>41.449174255558056</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>308</v>
-      </c>
-      <c r="G15">
-        <v>70</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>46.309144013291764</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>506</v>
-      </c>
-      <c r="G16">
-        <v>507</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>43.487625576090778</v>
+        <v>36.513623619795517</v>
       </c>
     </row>
   </sheetData>

--- a/AAE 560 Air Taxi Model/+airtaxi/output.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5804DCB0-0040-43EF-8955-1FB7E40295DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ED2DBA-17FA-4030-A5D3-8C8922E6FD16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112" xr2:uid="{97B5F062-53DE-4BDE-954C-29B2E344855B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5112" xr2:uid="{55D11A53-785A-46E0-8BA9-F92CA8C0EC44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,11 +402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84807C71-EC78-444E-BE3E-D0DB6C655FA6}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8949FF5C-A9E3-4FE4-BB4C-C6C526EC60AE}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,31 +442,437 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>98</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>26.63504923173846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>279</v>
+      </c>
+      <c r="G3">
+        <v>61</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>35.159704445176111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>307</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>42.536015068946341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>472</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>41.741313514360307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>671</v>
+      </c>
+      <c r="G6">
+        <v>238</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>47.988950785419703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>85</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>26.63504923173846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>276</v>
+      </c>
+      <c r="G8">
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>35.159704445176111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>304</v>
+      </c>
+      <c r="G9">
+        <v>58</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>43.007702711478409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>916</v>
+      </c>
+      <c r="G10">
+        <v>687</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>45.419769627223616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>646</v>
+      </c>
+      <c r="G11">
+        <v>314</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>43.843134824898556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>144</v>
+      </c>
+      <c r="G12">
+        <v>38</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>26.63504923173846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>267</v>
+      </c>
+      <c r="G13">
+        <v>66</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>35.159704445176111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>683</v>
-      </c>
-      <c r="G2">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>524</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>36.513623619795517</v>
+      <c r="G14">
+        <v>308</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>42.652348283284759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>661</v>
+      </c>
+      <c r="G15">
+        <v>510</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>45.224663560796444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>797</v>
+      </c>
+      <c r="G16">
+        <v>177</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>47.286974615215421</v>
       </c>
     </row>
   </sheetData>

--- a/AAE 560 Air Taxi Model/+airtaxi/output.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9EC456-23B7-4849-AE27-F73CA0647F14}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1674B8C3-75A1-475A-9438-0AC4A72FB27B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="9864" xr2:uid="{7EC89A71-CEE9-4C8C-8607-33A284E2406E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="9864" xr2:uid="{8A646A37-695B-4791-B6CF-3DDA8924ED6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03925B58-6027-4878-9DE3-87DCD98CE299}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7AE16B-D26B-45B5-9105-1B554F68670B}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="G2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -515,16 +515,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3054</v>
+        <v>2444</v>
       </c>
       <c r="G4">
-        <v>1717</v>
+        <v>1540</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>42.645521008433519</v>
+        <v>34.645338449995506</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5004</v>
+        <v>4979</v>
       </c>
       <c r="G5">
-        <v>3838</v>
+        <v>3999</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>41.173082654086599</v>
+        <v>45.152801868133103</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -573,16 +573,16 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5830</v>
+        <v>6409</v>
       </c>
       <c r="G6">
-        <v>4406</v>
+        <v>4330</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>45.191871474316621</v>
+        <v>47.598651780239997</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -602,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>615</v>
+        <v>420</v>
       </c>
       <c r="G7">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1194</v>
+        <v>1296</v>
       </c>
       <c r="G8">
-        <v>533</v>
+        <v>408</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -660,16 +660,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3418</v>
+        <v>3481</v>
       </c>
       <c r="G9">
-        <v>2223</v>
+        <v>2369</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.044423868736217</v>
+        <v>45.06247185710609</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -689,16 +689,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>5625</v>
+        <v>4387</v>
       </c>
       <c r="G10">
-        <v>4629</v>
+        <v>2556</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.421594643481647</v>
+        <v>49.849273946872302</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>7579</v>
+        <v>6312</v>
       </c>
       <c r="G11">
-        <v>6002</v>
+        <v>4604</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>51.90367499197243</v>
+        <v>49.187662705293334</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>520</v>
+        <v>431</v>
       </c>
       <c r="G12">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1137</v>
+        <v>990</v>
       </c>
       <c r="G13">
-        <v>441</v>
+        <v>205</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -805,16 +805,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3016</v>
+        <v>2639</v>
       </c>
       <c r="G14">
-        <v>2052</v>
+        <v>1369</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>40.894095211879701</v>
+        <v>42.416029932403752</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>5664</v>
+        <v>4648</v>
       </c>
       <c r="G15">
-        <v>4043</v>
+        <v>3108</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>46.612094082193003</v>
+        <v>48.989936596123023</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -863,16 +863,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>7064</v>
+        <v>7860</v>
       </c>
       <c r="G16">
-        <v>6098</v>
+        <v>6400</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>47.590682292856037</v>
+        <v>50.458955984150471</v>
       </c>
     </row>
   </sheetData>
